--- a/src/main/resources/static/excel/receiptGatherSpecial.xlsx
+++ b/src/main/resources/static/excel/receiptGatherSpecial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>开票收入</t>
   </si>
@@ -31,22 +31,13 @@
     <t>不含税金额</t>
   </si>
   <si>
-    <t>{{$fe:list1 t t.invoiceType</t>
+    <t>{{$fe:list t.invoiceType</t>
   </si>
   <si>
-    <t>t.invoiceAmount</t>
+    <t>t.commonInvoiceAmount</t>
   </si>
   <si>
-    <t>t.noTaxAmount}}</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>{{sumCommonInvoiceAmount}}</t>
-  </si>
-  <si>
-    <t>{{sumCommonNoTaxAmount}}</t>
+    <t>t.commonNoTaxAmount}}</t>
   </si>
 </sst>
 </file>
@@ -54,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,9 +72,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -93,39 +86,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,61 +101,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +150,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,15 +173,44 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,181 +231,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,71 +437,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +460,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,157 +516,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1030,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1069,42 +1052,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
